--- a/shots/players/excel/mister_superman.xslx.xlsx
+++ b/shots/players/excel/mister_superman.xslx.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -474,11 +474,11 @@
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(0,565)</f>
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,400)</f>
-        <v>396</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7">
